--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,19 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="X1_24V_5pin_BCZ" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="X2_48_DC_1778065" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="X8_IO_22pin_BCZ" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="X10_CAN_4pin_BCZ" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="LEDsigAx12" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="X5_FBE_12pin_BCZ" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="X6_FB1_8pin_BCZ" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="X7_FB2_8pin_BCZ" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="X3_M1_6pin_BLZP" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="X4_M2_6pin_BLZP" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="X1_24V_5pin_BCZ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="X2_48_DC_1778065" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="X8_IO_22pin_BCZ" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="X10_CAN_4pin_BCZ" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="LEDsigAx12" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="X5_FBE_12pin_BCZ" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="X6_FB1_8pin_BCZ" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="X7_FB2_8pin_BCZ" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="X3_M1_6pin_BLZP" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="X4_M2_6pin_BLZP" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="X1_24V_5pin_Microlock" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="X3_DCbus_2pin_pressfit" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="X3_M1_3pin_pressfit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="X4_BR_4pin_Microlock" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +34,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="153">
+  <si>
+    <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">výrobce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">řada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">počet OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmen. Proud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">špičkový proud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typ konektoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X1_24V_5pin_Microlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X8_IO_22pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X10_CAN_4pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X6_FB1_8pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X7_FB2_8pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X5_FBE_12pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_M1_3pin_pressfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dcbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_DCbus_2pin_pressfit</t>
+  </si>
   <si>
     <t xml:space="preserve">Pin č.</t>
   </si>
@@ -399,6 +488,48 @@
   <si>
     <t xml:space="preserve">Fáze U</t>
   </si>
+  <si>
+    <t xml:space="preserve">0,13 ~ 0,32 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Připojení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oko M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+6 ~ +50 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fáze W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fáze V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fáze U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tepl. čidla mot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Tepl. čidla mot.</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -433,6 +564,13 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -446,12 +584,18 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,12 +632,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,6 +666,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -514,104 +734,257 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D9" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H6"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="F9:F16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H9" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
+    <hyperlink ref="H10" location="X8_IO_22pin_BCZ!A1" display="#X8_IO_22pin_BCZ"/>
+    <hyperlink ref="H11" location="X10_CAN_4pin_BCZ!A1" display="#X10_CAN_4pin_BCZ"/>
+    <hyperlink ref="H12" location="X6_FB1_8pin_BCZ!A1" display="#X6_FB1_8pin_BCZ"/>
+    <hyperlink ref="H13" location="X7_FB2_8pin_BCZ!A1" display="#X7_FB2_8pin_BCZ"/>
+    <hyperlink ref="H14" location="X5_FBE_12pin_BCZ!A1" display="#X5_FBE_12pin_BCZ"/>
+    <hyperlink ref="H15" location="X3_M1_3pin_pressfit!A1" display="#X3_M1_3pin_pressfit"/>
+    <hyperlink ref="H16" location="X3_DCbus_2pin_pressfit!A1" display="#X3_DCbus_2pin_pressfit"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -629,11 +1002,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -642,16 +1015,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,22 +1102,526 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -757,26 +1634,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,13 +1680,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -823,30 +1747,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,13 +1774,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,293 +1788,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1173,30 +1813,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,13 +1886,265 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1271,39 +2163,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>71</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>73</v>
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1322,203 +2261,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1539,10 +2315,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1551,16 +2327,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,13 +2344,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,13 +2358,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,13 +2372,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,13 +2386,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,13 +2400,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,13 +2414,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,13 +2428,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,17 +2442,73 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1700,7 +2532,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1709,16 +2541,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,13 +2558,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,13 +2572,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,13 +2586,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,13 +2628,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,17 +2656,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1855,10 +2687,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1867,16 +2699,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,13 +2744,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,17 +2786,45 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,14 @@
     <sheet name="X3_DCbus_2pin_pressfit" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="X3_M1_3pin_pressfit" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="X4_BR_4pin_Microlock" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="X3_M1_4pin_wago_2626" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="X4_M2_4pin_wago_2626" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="XBR_BR_6pin_BLF" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="X1_24V_5pin_Microfit" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="P7_BR_4pin_Microfit" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="P8_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="P3_Term_2pin_Microfit" sheetId="23" state="visible" r:id="rId24"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -530,13 +538,92 @@
   <si>
     <t xml:space="preserve">+ Tepl. čidla mot.</t>
   </si>
+  <si>
+    <t xml:space="preserve">uzemnění</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,75 ~ 16 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 ~ 10 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,13 ~ 2,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Napájení brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda motor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda motor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V DC napájení řízení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,05 ~ 0,75 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Výstup +24 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V DC napájení brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V DC napájení diag. brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda servomotoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda servomotoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nezapojuje se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0V napájení řízení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teplotní čidlo PT1000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -632,7 +719,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -655,6 +742,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -736,8 +827,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,7 +1541,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,7 +1629,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1622,6 +1713,429 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">+B2</f>
+        <v>-B2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -1729,6 +2243,392 @@
       </c>
       <c r="D6" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,9 @@
     <sheet name="P7_BR_4pin_Microfit" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="P8_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="P3_Term_2pin_Microfit" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="X4_M1_6pin_SLS" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="X2_PWR_10pin_BLZP" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="X2_320_DC_1778078" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="199">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -615,6 +618,66 @@
   </si>
   <si>
     <t xml:space="preserve">Teplotní čidlo PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 ~ 2,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Střední pracovní vodič</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fáze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+RB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzdný odpor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-RB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzdný odpor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení meziobvodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Napájení meziobvodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+140 ~ +320V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. 6 mm2</t>
   </si>
 </sst>
 </file>
@@ -724,16 +787,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -746,6 +805,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -831,9 +894,9 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
   </cols>
@@ -980,7 +1043,7 @@
       <c r="G11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -993,7 +1056,7 @@
       <c r="G12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1006,7 +1069,7 @@
       <c r="G13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1019,7 +1082,7 @@
       <c r="G14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1032,7 +1095,7 @@
       <c r="G15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1045,7 +1108,7 @@
       <c r="G16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1097,7 +1160,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1203,7 +1266,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1227,7 +1290,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1333,7 +1396,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1357,7 +1420,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -1470,7 +1533,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1520,7 +1583,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1544,7 +1607,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1608,7 +1671,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1632,7 +1695,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -1731,7 +1794,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1795,7 +1858,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1819,7 +1882,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1897,7 +1960,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1921,7 +1984,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1999,7 +2062,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2023,7 +2086,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
@@ -2048,7 +2111,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2105,7 +2168,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2119,7 +2182,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2130,7 +2193,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2154,7 +2217,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -2267,11 +2330,11 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
   </cols>
   <sheetData>
@@ -2381,7 +2444,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2481,7 +2544,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2577,11 +2640,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2629,6 +2692,405 @@
       </c>
       <c r="D3" s="0" t="s">
         <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +3115,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2719,7 +3181,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
@@ -3069,7 +3531,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
@@ -3167,7 +3629,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
   </cols>
@@ -3218,7 +3680,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3408,7 +3870,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3432,7 +3894,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3566,7 +4028,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3590,7 +4052,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3724,7 +4186,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,6 +34,8 @@
     <sheet name="X4_M1_6pin_SLS" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="X2_PWR_10pin_BLZP" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="X2_320_DC_1778078" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="X4_M1_6pin_BLF" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="X2_PWR_12pin_BLZ" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="214">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -678,6 +680,51 @@
   </si>
   <si>
     <t xml:space="preserve">Max. 6 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5 ~ 2,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fáze 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fáze 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fáze 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzdný odpor interní</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volba brzdného odporu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzdný odpor externí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Termistor</t>
   </si>
 </sst>
 </file>
@@ -894,9 +941,9 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
   </cols>
@@ -1160,7 +1207,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1290,7 +1337,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1420,7 +1467,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -1533,7 +1580,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1607,7 +1654,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1695,7 +1742,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -1794,7 +1841,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1882,7 +1929,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1984,7 +2031,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -2083,10 +2130,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
@@ -2217,7 +2264,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -2330,7 +2377,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2444,7 +2491,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2544,7 +2591,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2644,7 +2691,7 @@
       <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2716,7 +2763,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -2843,10 +2890,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
@@ -3028,11 +3075,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
   </cols>
@@ -3091,6 +3138,347 @@
       </c>
       <c r="D4" s="0" t="s">
         <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +3503,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3181,7 +3569,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
@@ -3531,7 +3919,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
@@ -3629,7 +4017,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
   </cols>
@@ -3680,7 +4068,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3894,7 +4282,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -4052,7 +4440,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,37 +5,39 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="X1_24V_5pin_BCZ" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="X2_48_DC_1778065" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="X8_IO_22pin_BCZ" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="X10_CAN_4pin_BCZ" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="LEDsigAx12" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="X5_FBE_12pin_BCZ" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="X6_FB1_8pin_BCZ" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="X7_FB2_8pin_BCZ" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="X3_M1_6pin_BLZP" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="X4_M2_6pin_BLZP" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="X1_24V_5pin_Microlock" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="X3_DCbus_2pin_pressfit" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="X3_M1_3pin_pressfit" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="X4_BR_4pin_Microlock" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="X3_M1_4pin_wago_2626" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="X4_M2_4pin_wago_2626" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="XBR_BR_6pin_BLF" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="X1_24V_5pin_Microfit" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="P7_BR_4pin_Microfit" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="P8_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="P3_Term_2pin_Microfit" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="X4_M1_6pin_SLS" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="X2_PWR_10pin_BLZP" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="X2_320_DC_1778078" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="X4_M1_6pin_BLF" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="X2_PWR_12pin_BLZ" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="X1_24V_5pin_BCZ" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="X2_48_DC_1778065" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="X8_IO_22pin_BCZ" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="X10_CAN_4pin_BCZ" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="LEDsigAx12" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="X5_FBE_12pin_BCZ" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="X6_FB1_8pin_BCZ" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="X7_FB2_8pin_BCZ" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="X3_M1_6pin_BLZP" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="X4_M2_6pin_BLZP" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="X1_24V_5pin_Microlock" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="X3_DCbus_2pin_pressfit" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="X3_M1_3pin_pressfit" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="X4_BR_4pin_Microlock" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="X3_M1_4pin_wago_2626" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="X4_M2_4pin_wago_2626" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="XBR_BR_6pin_BLF" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="X1_24V_5pin_Microfit" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="P7_BR_4pin_Microfit" sheetId="21" state="visible" r:id="rId23"/>
+    <sheet name="P8_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
+    <sheet name="P3_Term_2pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
+    <sheet name="X4_M1_6pin_SLS" sheetId="24" state="visible" r:id="rId26"/>
+    <sheet name="X2_PWR_10pin_BLZP" sheetId="25" state="visible" r:id="rId27"/>
+    <sheet name="X2_320_DC_1778078" sheetId="26" state="visible" r:id="rId28"/>
+    <sheet name="X4_M1_6pin_BLF" sheetId="27" state="visible" r:id="rId29"/>
+    <sheet name="X2_PWR_12pin_BLZ" sheetId="28" state="visible" r:id="rId30"/>
+    <sheet name="X2_D560DCbus" sheetId="29" state="visible" r:id="rId31"/>
+    <sheet name="X3_M1_4pin_wago_2636" sheetId="30" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="219">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -725,6 +727,21 @@
   </si>
   <si>
     <t xml:space="preserve">-Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-DC IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ DC bus vstup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dle oka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+DC IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- DC bus vstup</t>
   </si>
 </sst>
 </file>
@@ -829,32 +846,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,8 +951,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -943,230 +1070,230 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="0" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="0" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="0" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="0" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>250</v>
       </c>
     </row>
@@ -1197,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1209,111 +1336,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1327,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1339,111 +1466,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1457,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1469,92 +1596,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1570,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1582,55 +1709,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1644,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1656,69 +1783,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1732,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1744,78 +1871,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1831,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1843,69 +1970,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1919,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1931,83 +2058,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2021,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2033,83 +2160,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2123,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2135,112 +2262,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="str">
+      <c r="B3" s="1" t="str">
         <f aca="false">+B2</f>
         <v>-B2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2254,7 +2381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2266,92 +2393,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2367,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2379,93 +2506,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2481,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2493,79 +2620,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2581,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2593,79 +2720,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2681,7 +2808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2693,51 +2820,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2753,7 +2880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2765,111 +2892,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2883,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2895,167 +3022,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3069,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3081,62 +3208,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3152,7 +3279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3164,111 +3291,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3282,204 +3409,305 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>128</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3493,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3506,46 +3734,148 @@
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3559,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3571,329 +3901,329 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3909,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3921,77 +4251,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4007,7 +4337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4019,30 +4349,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4058,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4070,195 +4400,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4272,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4284,139 +4614,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4430,7 +4760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4442,139 +4772,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="29"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -38,6 +38,12 @@
     <sheet name="X2_PWR_12pin_BLZ" sheetId="28" state="visible" r:id="rId30"/>
     <sheet name="X2_D560DCbus" sheetId="29" state="visible" r:id="rId31"/>
     <sheet name="X3_M1_4pin_wago_2636" sheetId="30" state="visible" r:id="rId32"/>
+    <sheet name="X4_M2_4pin_wago_2636" sheetId="31" state="visible" r:id="rId33"/>
+    <sheet name="X14_BR1_4pin_LSF" sheetId="32" state="visible" r:id="rId34"/>
+    <sheet name="X15_BR2_4pin_LSF" sheetId="33" state="visible" r:id="rId35"/>
+    <sheet name="X1_ACIN_PC5" sheetId="34" state="visible" r:id="rId36"/>
+    <sheet name="X2_DC_8pin_PC5" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="X3_DO_4pin_BCZ" sheetId="36" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="243">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -723,9 +729,15 @@
     <t xml:space="preserve">Brzdný odpor externí</t>
   </si>
   <si>
+    <t xml:space="preserve">T+</t>
+  </si>
+  <si>
     <t xml:space="preserve">+Termistor</t>
   </si>
   <si>
+    <t xml:space="preserve">T-</t>
+  </si>
+  <si>
     <t xml:space="preserve">-Termistor</t>
   </si>
   <si>
@@ -742,6 +754,72 @@
   </si>
   <si>
     <t xml:space="preserve">- DC bus vstup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,13 ~ 1,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fáze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + RB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - RB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signál „Ready“ kontakt 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signál „Ready“ kontakt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signál „Error“ kontakt 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signál „Error“ kontakt 2</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1782,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3416,7 +3494,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3585,10 +3663,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>128</v>
@@ -3599,10 +3677,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>128</v>
@@ -3627,7 +3705,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3656,13 +3734,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,13 +3748,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,8 +3871,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3823,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>154</v>
@@ -3837,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>154</v>
@@ -3851,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>154</v>
@@ -3865,17 +3943,815 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.79"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="35"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="X1_24V_5pin_BCZ" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="X2_48_DC_1778065" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="X8_IO_22pin_BCZ" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="X10_CAN_4pin_BCZ" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="X8_IO_22pin_B2CF" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="X10_CAN_4pin_B2CF" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="LEDsigAx12" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="X5_FBE_12pin_BCZ" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="X6_FB1_8pin_BCZ" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="X7_FB2_8pin_BCZ" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="X5_FBE_12pin_B2CF" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="X6_FB1_8pin_B2CF" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="X7_FB2_8pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="X3_M1_6pin_BLZP" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="X4_M2_6pin_BLZP" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="X1_24V_5pin_Microlock" sheetId="12" state="visible" r:id="rId14"/>
@@ -44,6 +44,10 @@
     <sheet name="X1_ACIN_PC5" sheetId="34" state="visible" r:id="rId36"/>
     <sheet name="X2_DC_8pin_PC5" sheetId="35" state="visible" r:id="rId37"/>
     <sheet name="X3_DO_4pin_BCZ" sheetId="36" state="visible" r:id="rId38"/>
+    <sheet name="X3_24V_BLF_2_5" sheetId="37" state="visible" r:id="rId39"/>
+    <sheet name="X5_DI_10pin_B2CF" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X10_DO_10pin_B2CF" sheetId="39" state="visible" r:id="rId41"/>
+    <sheet name="S1_SWITCH_CAN" sheetId="40" state="visible" r:id="rId42"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="280">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -820,6 +824,117 @@
   </si>
   <si>
     <t xml:space="preserve">Signál „Error“ kontakt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+PWR 24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro napájecí napětí 24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,08 ~ 0,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWRCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro napájecí zem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup č. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup č. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Společná zem DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Společné napájení DO 24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahoře</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vypnuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN není terminován</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapnuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN je terminován</t>
   </si>
 </sst>
 </file>
@@ -3952,22 +4067,6 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-    </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
     </row>
@@ -4070,22 +4169,6 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-    </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
     </row>
@@ -4108,7 +4191,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4187,26 +4270,6 @@
       <c r="D5" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
@@ -4310,26 +4373,6 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-    </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
     </row>
@@ -4357,7 +4400,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,13 +4446,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4432,7 +4475,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
@@ -4446,128 +4489,128 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4582,76 +4625,6 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4671,8 +4644,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4752,6 +4725,424 @@
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5102,6 +5493,101 @@
       <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="38"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -48,6 +48,10 @@
     <sheet name="X5_DI_10pin_B2CF" sheetId="38" state="visible" r:id="rId40"/>
     <sheet name="X10_DO_10pin_B2CF" sheetId="39" state="visible" r:id="rId41"/>
     <sheet name="S1_SWITCH_CAN" sheetId="40" state="visible" r:id="rId42"/>
+    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="42" state="visible" r:id="rId44"/>
+    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="43" state="visible" r:id="rId45"/>
+    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="44" state="visible" r:id="rId46"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="286">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -935,6 +939,24 @@
   </si>
   <si>
     <t xml:space="preserve">CAN je terminován</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozšířený vstup 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozšířený vstup 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V napájení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSI</t>
   </si>
 </sst>
 </file>
@@ -4852,7 +4874,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,15 +5025,15 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,74 +5542,581 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>277</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="43"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -63,9 +63,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="286">
-  <si>
-    <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="327">
+  <si>
+    <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
   <si>
     <t xml:space="preserve">výrobce</t>
@@ -110,31 +110,31 @@
     <t xml:space="preserve">IO</t>
   </si>
   <si>
-    <t xml:space="preserve">#X8_IO_22pin_BCZ</t>
+    <t xml:space="preserve">#X8_IO_22pin_B2CF</t>
   </si>
   <si>
     <t xml:space="preserve">CAN</t>
   </si>
   <si>
-    <t xml:space="preserve">#X10_CAN_4pin_BCZ</t>
+    <t xml:space="preserve">#X10_CAN_4pin_B2CF</t>
   </si>
   <si>
     <t xml:space="preserve">FB1</t>
   </si>
   <si>
-    <t xml:space="preserve">#X6_FB1_8pin_BCZ</t>
+    <t xml:space="preserve">#X6_FB1_8pin_B2CF</t>
   </si>
   <si>
     <t xml:space="preserve">FB2</t>
   </si>
   <si>
-    <t xml:space="preserve">#X7_FB2_8pin_BCZ</t>
+    <t xml:space="preserve">#X7_FB2_8pin_B2CF</t>
   </si>
   <si>
     <t xml:space="preserve">FBE</t>
   </si>
   <si>
-    <t xml:space="preserve">#X5_FBE_12pin_BCZ</t>
+    <t xml:space="preserve">#X5_FBE_12pin_B2CF</t>
   </si>
   <si>
     <t xml:space="preserve">M1</t>
@@ -147,6 +147,129 @@
   </si>
   <si>
     <t xml:space="preserve">#X3_DCbus_2pin_pressfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jen šrouby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X1_24V_5pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_M1_6pin_BLZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X4_M2_6pin_BLZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_48_DC_1778065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X4_M1_6pin_SLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230VAC IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_PWR_10pin_BLZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_320_DC_1778078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X4_M1_6pin_BLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_PWR_12pin_BLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_M1_4pin_wago_2636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X4_M2_4pin_wago_2636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_D560DCbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzda 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X14_BR1_4pin_LSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzda 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X15_BR2_4pin_LSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X1_ACIN_PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X2_DC_8pin_PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_DO_4pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_24V_BLF_2_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#S1_SWITCH_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X5_DI_10pin_B2CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X10_DO_10pin_B2CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlleR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X1_24V_5pin_BCZ_TGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X6_FB1_8pin_B2CF_TGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X7_FB2_8pin_B2CF_TGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X5_FBE_12pin_B2CF_TGM</t>
   </si>
   <si>
     <t xml:space="preserve">Pin č.</t>
@@ -967,7 +1090,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -990,6 +1113,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -1061,7 +1191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1074,6 +1204,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,7 +1220,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1277,16 +1431,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.81"/>
   </cols>
   <sheetData>
@@ -1382,151 +1536,2486 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="5" t="n">
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="1" t="n">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="1" t="n">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="1" t="n">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="1" t="n">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="1" t="n">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="1" t="n">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="5" t="n">
         <v>250</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>320</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>320</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="8" t="n">
+        <v>560</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" s="8" t="n">
+        <v>320</v>
+      </c>
+      <c r="E119" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" s="8" t="n">
+        <v>560</v>
+      </c>
+      <c r="E122" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="8" t="n">
+        <v>560</v>
+      </c>
+      <c r="E125" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="8"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="8"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="8"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="8"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="8"/>
+      <c r="C133" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="49">
     <mergeCell ref="A1:H6"/>
+    <mergeCell ref="B9:B118"/>
+    <mergeCell ref="C9:C40"/>
+    <mergeCell ref="D9:D49"/>
     <mergeCell ref="E9:E16"/>
     <mergeCell ref="F9:F16"/>
+    <mergeCell ref="E17:E40"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="F33:F40"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E75"/>
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="C58:C75"/>
+    <mergeCell ref="D58:D75"/>
+    <mergeCell ref="F58:F66"/>
+    <mergeCell ref="F67:F75"/>
+    <mergeCell ref="C76:C107"/>
+    <mergeCell ref="D76:D107"/>
+    <mergeCell ref="E76:E83"/>
+    <mergeCell ref="F76:F83"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="F92:F99"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="F100:F107"/>
+    <mergeCell ref="C108:C118"/>
+    <mergeCell ref="D108:D118"/>
+    <mergeCell ref="E108:E118"/>
+    <mergeCell ref="F108:F118"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="B128:B138"/>
+    <mergeCell ref="C128:F132"/>
+    <mergeCell ref="C133:F138"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
-    <hyperlink ref="H10" location="X8_IO_22pin_BCZ!A1" display="#X8_IO_22pin_BCZ"/>
-    <hyperlink ref="H11" location="X10_CAN_4pin_BCZ!A1" display="#X10_CAN_4pin_BCZ"/>
-    <hyperlink ref="H12" location="X6_FB1_8pin_BCZ!A1" display="#X6_FB1_8pin_BCZ"/>
-    <hyperlink ref="H13" location="X7_FB2_8pin_BCZ!A1" display="#X7_FB2_8pin_BCZ"/>
-    <hyperlink ref="H14" location="X5_FBE_12pin_BCZ!A1" display="#X5_FBE_12pin_BCZ"/>
+    <hyperlink ref="H10" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H11" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H12" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H13" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H14" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
     <hyperlink ref="H15" location="X3_M1_3pin_pressfit!A1" display="#X3_M1_3pin_pressfit"/>
     <hyperlink ref="H16" location="X3_DCbus_2pin_pressfit!A1" display="#X3_DCbus_2pin_pressfit"/>
+    <hyperlink ref="H17" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
+    <hyperlink ref="H18" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H19" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H20" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H21" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H22" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H25" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
+    <hyperlink ref="H26" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H27" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H28" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H29" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H30" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H33" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
+    <hyperlink ref="H34" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H35" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H36" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H37" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H38" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H41" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H42" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H43" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H44" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H45" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H46" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H47" location="X3_M1_6pin_BLZP!A1" display="#X3_M1_6pin_BLZP"/>
+    <hyperlink ref="H48" location="X4_M2_6pin_BLZP!A1" display="#X4_M2_6pin_BLZP"/>
+    <hyperlink ref="H49" location="X2_48_DC_1778065!A1" display="#X2_48_DC_1778065"/>
+    <hyperlink ref="H50" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H51" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H52" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H53" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H54" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H55" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H56" location="X4_M1_6pin_SLS!A1" display="#X4_M1_6pin_SLS"/>
+    <hyperlink ref="H57" location="X2_PWR_10pin_BLZP!A1" display="#X2_PWR_10pin_BLZP"/>
+    <hyperlink ref="H58" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H59" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H60" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H61" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H62" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H63" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H64" location="X4_M1_6pin_SLS!A1" display="#X4_M1_6pin_SLS"/>
+    <hyperlink ref="H65" location="X4_M1_6pin_SLS!A1" display="#X4_M1_6pin_SLS"/>
+    <hyperlink ref="H66" location="X2_320_DC_1778078!A1" display="#X2_320_DC_1778078"/>
+    <hyperlink ref="H67" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H68" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H69" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H70" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H71" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H72" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H73" location="X4_M1_6pin_SLS!A1" display="#X4_M1_6pin_SLS"/>
+    <hyperlink ref="H74" location="X4_M1_6pin_SLS!A1" display="#X4_M1_6pin_SLS"/>
+    <hyperlink ref="H75" location="X2_320_DC_1778078!A1" display="#X2_320_DC_1778078"/>
+    <hyperlink ref="H76" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H77" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H78" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H79" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H80" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H81" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H82" location="X4_M1_6pin_BLF!A1" display="#X4_M1_6pin_BLF"/>
+    <hyperlink ref="H83" location="X2_PWR_12pin_BLZ!A1" display="#X2_PWR_12pin_BLZ"/>
+    <hyperlink ref="H84" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H85" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H86" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H87" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H88" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H89" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H90" location="X4_M1_6pin_BLF!A1" display="#X4_M1_6pin_BLF"/>
+    <hyperlink ref="H91" location="X2_PWR_12pin_BLZ!A1" display="#X2_PWR_12pin_BLZ"/>
+    <hyperlink ref="H92" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H93" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H94" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H95" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H96" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H97" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H98" location="X4_M1_6pin_BLF!A1" display="#X4_M1_6pin_BLF"/>
+    <hyperlink ref="H99" location="X2_PWR_12pin_BLZ!A1" display="#X2_PWR_12pin_BLZ"/>
+    <hyperlink ref="H100" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H101" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H102" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H103" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H104" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H105" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H106" location="X4_M1_6pin_BLF!A1" display="#X4_M1_6pin_BLF"/>
+    <hyperlink ref="H107" location="X2_PWR_12pin_BLZ!A1" display="#X2_PWR_12pin_BLZ"/>
+    <hyperlink ref="H108" location="X1_24V_5pin_BCZ!A1" display="#X1_24V_5pin_BCZ"/>
+    <hyperlink ref="H109" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H110" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H111" location="X6_FB1_8pin_B2CF!A1" display="#X6_FB1_8pin_B2CF"/>
+    <hyperlink ref="H112" location="X7_FB2_8pin_B2CF!A1" display="#X7_FB2_8pin_B2CF"/>
+    <hyperlink ref="H113" location="X5_FBE_12pin_B2CF!A1" display="#X5_FBE_12pin_B2CF"/>
+    <hyperlink ref="H114" location="X3_M1_4pin_wago_2636!A1" display="#X3_M1_4pin_wago_2636"/>
+    <hyperlink ref="H115" location="X4_M2_4pin_wago_2636!A1" display="#X4_M2_4pin_wago_2636"/>
+    <hyperlink ref="H116" location="X2_D560DCbus!A1" display="#X2_D560DCbus"/>
+    <hyperlink ref="H117" location="X14_BR1_4pin_LSF!A1" display="#X14_BR1_4pin_LSF"/>
+    <hyperlink ref="H118" location="X15_BR2_4pin_LSF!A1" display="#X15_BR2_4pin_LSF"/>
+    <hyperlink ref="H119" location="X1_ACIN_PC5!A1" display="#X1_ACIN_PC5"/>
+    <hyperlink ref="H120" location="X2_DC_8pin_PC5!A1" display="#X2_DC_8pin_PC5"/>
+    <hyperlink ref="H121" location="X3_DO_4pin_BCZ!A1" display="#X3_DO_4pin_BCZ"/>
+    <hyperlink ref="H128" location="X3_24V_BLF_2_5!A1" display="#X3_24V_BLF_2_5"/>
+    <hyperlink ref="H129" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H130" location="S1_SWITCH_CAN!A1" display="#S1_SWITCH_CAN"/>
+    <hyperlink ref="H131" location="X5_DI_10pin_B2CF!A1" display="#X5_DI_10pin_B2CF"/>
+    <hyperlink ref="H132" location="X10_DO_10pin_B2CF!A1" display="#X10_DO_10pin_B2CF"/>
+    <hyperlink ref="H133" location="X1_24V_5pin_BCZ_TGM!A1" display="#X1_24V_5pin_BCZ_TGM"/>
+    <hyperlink ref="H134" location="X10_CAN_4pin_B2CF!A1" display="#X10_CAN_4pin_B2CF"/>
+    <hyperlink ref="H135" location="X8_IO_22pin_B2CF!A1" display="#X8_IO_22pin_B2CF"/>
+    <hyperlink ref="H136" location="X6_FB1_8pin_B2CF_TGM!A1" display="#X6_FB1_8pin_B2CF_TGM"/>
+    <hyperlink ref="H137" location="X7_FB2_8pin_B2CF_TGM!A1" display="#X7_FB2_8pin_B2CF_TGM"/>
+    <hyperlink ref="H138" location="X5_FBE_12pin_B2CF_TGM!A1" display="#X5_FBE_12pin_B2CF_TGM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1558,16 +4047,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,13 +4064,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,13 +4078,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,13 +4092,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,13 +4106,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,13 +4120,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,17 +4134,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1688,16 +4177,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,13 +4194,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,13 +4208,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,13 +4222,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,13 +4236,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,13 +4250,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,17 +4264,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1818,16 +4307,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,13 +4324,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,13 +4338,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,13 +4352,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,13 +4366,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,13 +4380,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1931,16 +4420,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,17 +4451,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2005,16 +4494,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,13 +4511,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,13 +4525,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,17 +4539,17 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2093,16 +4582,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,13 +4599,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,13 +4613,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,13 +4627,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,13 +4641,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2192,16 +4681,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,13 +4698,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,13 +4712,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,17 +4726,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2280,16 +4769,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,13 +4786,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,13 +4800,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,13 +4814,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,17 +4828,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2382,16 +4871,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,13 +4902,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,13 +4916,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,17 +4930,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2484,30 +4973,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>156</v>
+      <c r="B2" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,10 +5008,10 @@
         <v>-B2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,13 +5019,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,45 +5033,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>162</v>
+      <c r="B6" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>164</v>
+      <c r="B7" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2615,16 +5104,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,13 +5121,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,13 +5135,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,13 +5149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,13 +5177,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2729,16 +5218,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,13 +5235,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,13 +5249,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,13 +5263,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,13 +5277,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,13 +5291,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2843,16 +5332,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,13 +5349,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,13 +5363,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,13 +5377,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,13 +5391,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2943,16 +5432,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,13 +5449,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,13 +5463,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,13 +5477,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,13 +5491,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3043,16 +5532,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,13 +5563,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3102,7 +5591,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3114,16 +5603,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,13 +5620,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,13 +5634,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,13 +5648,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,13 +5662,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,13 +5676,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,17 +5690,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3243,161 +5732,161 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
+      <c r="A1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>128</v>
+      <c r="B2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>128</v>
+      <c r="B3" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>128</v>
+      <c r="B4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>128</v>
+      <c r="B5" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>128</v>
+      <c r="B6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>128</v>
+      <c r="B7" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>128</v>
+      <c r="B8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>128</v>
+      <c r="B9" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>128</v>
+      <c r="B10" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>128</v>
+      <c r="A11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3428,16 +5917,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,13 +5934,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,13 +5948,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,13 +5962,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3513,16 +6002,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,13 +6019,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,13 +6033,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,13 +6047,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,13 +6061,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,13 +6075,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,17 +6089,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3643,16 +6132,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,13 +6149,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,13 +6163,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,13 +6177,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,13 +6191,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,13 +6205,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,13 +6233,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,13 +6247,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,13 +6261,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,13 +6275,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,13 +6289,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,13 +6303,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3854,16 +6343,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,13 +6360,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,13 +6374,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,16 +6439,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,13 +6456,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,13 +6470,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4021,16 +6510,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,13 +6527,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,13 +6541,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,13 +6555,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,17 +6569,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4123,16 +6612,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,13 +6629,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,13 +6643,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,13 +6657,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,17 +6671,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4225,16 +6714,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,13 +6731,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,13 +6745,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,13 +6759,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,17 +6773,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4315,7 +6804,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4327,16 +6816,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,13 +6833,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,13 +6847,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,13 +6861,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,17 +6875,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4427,16 +6916,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,13 +6933,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,13 +6947,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,13 +6961,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4512,16 +7001,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,13 +7018,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,13 +7032,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,13 +7046,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,13 +7060,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,13 +7074,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,13 +7088,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,13 +7102,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,26 +7116,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4680,16 +7169,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,13 +7186,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,13 +7200,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,13 +7214,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,13 +7228,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4780,16 +7269,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,13 +7286,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,13 +7300,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,13 +7314,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,13 +7328,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +7368,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,10 +7382,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,10 +7393,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,10 +7404,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,10 +7415,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,10 +7426,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,10 +7448,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,10 +7459,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,10 +7470,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,10 +7481,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,7 +7494,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5038,13 +7527,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,10 +7541,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,10 +7552,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,10 +7563,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,10 +7574,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,10 +7585,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,10 +7596,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,10 +7607,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5129,10 +7618,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,10 +7629,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,10 +7640,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,7 +7653,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5196,16 +7685,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,13 +7702,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,13 +7716,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,13 +7730,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,13 +7744,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,13 +7758,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,13 +7772,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,13 +7786,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,13 +7800,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,13 +7814,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,13 +7828,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,13 +7842,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,13 +7856,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,13 +7870,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,13 +7884,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,13 +7898,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,13 +7912,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,13 +7926,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,13 +7940,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,13 +7954,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,13 +7968,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,13 +7982,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,13 +7996,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5547,35 +8036,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +8098,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5642,16 +8131,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,13 +8148,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,13 +8162,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5687,13 +8176,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,13 +8190,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,13 +8204,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5749,15 +8238,15 @@
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,7 +8270,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +8278,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,7 +8286,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +8294,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,7 +8310,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +8318,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +8326,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,7 +8334,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5882,18 +8371,18 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,10 +8390,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,10 +8401,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,10 +8412,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,10 +8423,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,10 +8434,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,10 +8445,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,10 +8456,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,14 +8467,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6005,26 +8494,26 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,10 +8521,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,10 +8532,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,10 +8543,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,10 +8554,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,10 +8565,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6087,10 +8576,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6098,10 +8587,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,14 +8598,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5"/>
+      <c r="B18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6137,7 +8626,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6148,16 +8637,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,13 +8654,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6179,13 +8668,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,13 +8682,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,13 +8696,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6245,26 +8734,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6298,16 +8787,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,13 +8804,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6329,13 +8818,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,13 +8832,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,13 +8846,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6371,13 +8860,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,13 +8874,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,13 +8888,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6413,13 +8902,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,13 +8916,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,13 +8930,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,13 +8944,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,17 +8958,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6512,16 +9001,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,13 +9018,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,13 +9032,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,13 +9046,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,13 +9060,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,13 +9074,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,13 +9088,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,13 +9102,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,17 +9116,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6670,16 +9159,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,13 +9176,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,13 +9190,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,13 +9204,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,13 +9218,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,13 +9232,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,13 +9246,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,13 +9260,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,17 +9274,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -52,6 +52,12 @@
     <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="42" state="visible" r:id="rId44"/>
     <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="43" state="visible" r:id="rId45"/>
     <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="44" state="visible" r:id="rId46"/>
+    <sheet name="X4_FBE_12pin_ClikMate" sheetId="45" state="visible" r:id="rId47"/>
+    <sheet name="X5_FB1_10pin_ClikMate" sheetId="46" state="visible" r:id="rId48"/>
+    <sheet name="X6_FB2_10pin_ClikMate" sheetId="47" state="visible" r:id="rId49"/>
+    <sheet name="X7_AIN_12pin_ClikMate" sheetId="48" state="visible" r:id="rId50"/>
+    <sheet name="X8_DIO_18pin_ClikMate" sheetId="49" state="visible" r:id="rId51"/>
+    <sheet name="X10_CAN_8pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="375">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1081,6 +1087,150 @@
   <si>
     <t xml:space="preserve">SSI</t>
   </si>
+  <si>
+    <t xml:space="preserve">RS422, RS485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA+ (CLK+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxD+/RxD+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA- (CLK-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxD-/RxD-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO+ (DATA+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO- (DATA-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RxD+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RxD-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analogový vstup 0-10V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analogová zem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT1000_1+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro 1. PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT1000_1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT1000_2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro 2. PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT1000_2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DITTL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dig. Vstup 5-30V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální zem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DITTL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DITTL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstup izolovaný č. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oddělená zem DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oddělené napájení DO 24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální výstup izolovaný č. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální výstup izolovaný č. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální výstup izolovaný č. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální výstup izolovaný č. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální výstup izolovaný č. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální výstup izolovaný č. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN High signál</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN Low signál</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN izolovaná zem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN terminační propoj H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN terminační propoj L</t>
+  </si>
 </sst>
 </file>
 
@@ -1090,7 +1240,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1113,13 +1263,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -1191,7 +1334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1204,11 +1347,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1224,19 +1363,7 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1433,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1545,16 +1672,16 @@
       <c r="D9" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1568,12 +1695,12 @@
       <c r="D10" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1587,12 +1714,12 @@
       <c r="D11" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1606,12 +1733,12 @@
       <c r="D12" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1625,12 +1752,12 @@
       <c r="D13" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1644,12 +1771,12 @@
       <c r="D14" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1663,12 +1790,12 @@
       <c r="D15" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1682,12 +1809,12 @@
       <c r="D16" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1701,16 +1828,16 @@
       <c r="D17" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <v>250</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1724,12 +1851,12 @@
       <c r="D18" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1743,12 +1870,12 @@
       <c r="D19" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1762,12 +1889,12 @@
       <c r="D20" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1781,12 +1908,12 @@
       <c r="D21" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1800,12 +1927,12 @@
       <c r="D22" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1819,8 +1946,8 @@
       <c r="D23" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1838,8 +1965,8 @@
       <c r="D24" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1857,16 +1984,16 @@
       <c r="D25" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4" t="n">
         <v>300</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1880,12 +2007,12 @@
       <c r="D26" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1899,12 +2026,12 @@
       <c r="D27" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1918,12 +2045,12 @@
       <c r="D28" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1937,12 +2064,12 @@
       <c r="D29" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1956,12 +2083,12 @@
       <c r="D30" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1975,8 +2102,8 @@
       <c r="D31" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1994,8 +2121,8 @@
       <c r="D32" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2013,16 +2140,16 @@
       <c r="D33" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="4" t="n">
         <v>450</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2036,12 +2163,12 @@
       <c r="D34" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2055,12 +2182,12 @@
       <c r="D35" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2074,12 +2201,12 @@
       <c r="D36" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2093,12 +2220,12 @@
       <c r="D37" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2112,12 +2239,12 @@
       <c r="D38" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2131,8 +2258,8 @@
       <c r="D39" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,8 +2277,8 @@
       <c r="D40" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="1" t="s">
         <v>26</v>
       </c>
@@ -2169,16 +2296,16 @@
       <c r="D41" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="4" t="n">
         <v>26</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2192,12 +2319,12 @@
       <c r="D42" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2211,12 +2338,12 @@
       <c r="D43" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2230,12 +2357,12 @@
       <c r="D44" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2249,12 +2376,12 @@
       <c r="D45" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2268,12 +2395,12 @@
       <c r="D46" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2287,12 +2414,12 @@
       <c r="D47" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2306,12 +2433,12 @@
       <c r="D48" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2325,12 +2452,12 @@
       <c r="D49" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2344,16 +2471,16 @@
       <c r="D50" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2367,12 +2494,12 @@
       <c r="D51" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2386,12 +2513,12 @@
       <c r="D52" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2405,12 +2532,12 @@
       <c r="D53" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2424,12 +2551,12 @@
       <c r="D54" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2443,12 +2570,12 @@
       <c r="D55" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2462,12 +2589,12 @@
       <c r="D56" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2481,12 +2608,12 @@
       <c r="D57" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2500,16 +2627,16 @@
       <c r="D58" s="3" t="n">
         <v>320</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2521,12 +2648,12 @@
         <v>29</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2538,12 +2665,12 @@
         <v>29</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2555,12 +2682,12 @@
         <v>29</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2572,12 +2699,12 @@
         <v>29</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2589,12 +2716,12 @@
         <v>29</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2606,12 +2733,12 @@
         <v>29</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2623,12 +2750,12 @@
         <v>29</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2640,12 +2767,12 @@
         <v>29</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2659,16 +2786,16 @@
       <c r="D67" s="3" t="n">
         <v>320</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2680,12 +2807,12 @@
         <v>29</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2697,12 +2824,12 @@
         <v>29</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2714,12 +2841,12 @@
         <v>29</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2731,12 +2858,12 @@
         <v>29</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2748,12 +2875,12 @@
         <v>29</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2765,12 +2892,12 @@
         <v>29</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2782,12 +2909,12 @@
         <v>29</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2799,12 +2926,12 @@
         <v>29</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2818,16 +2945,16 @@
       <c r="D76" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="E76" s="8" t="n">
+      <c r="E76" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="4" t="n">
         <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2839,12 +2966,12 @@
         <v>11</v>
       </c>
       <c r="D77" s="3"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2856,12 +2983,12 @@
         <v>11</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="5"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2873,12 +3000,12 @@
         <v>11</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="5"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2890,12 +3017,12 @@
         <v>11</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="5"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2907,12 +3034,12 @@
         <v>11</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2924,12 +3051,12 @@
         <v>11</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2941,12 +3068,12 @@
         <v>11</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2958,16 +3085,16 @@
         <v>11</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="8" t="n">
+      <c r="E84" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2979,12 +3106,12 @@
         <v>11</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2996,12 +3123,12 @@
         <v>11</v>
       </c>
       <c r="D86" s="3"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3013,12 +3140,12 @@
         <v>11</v>
       </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3030,12 +3157,12 @@
         <v>11</v>
       </c>
       <c r="D88" s="3"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3047,12 +3174,12 @@
         <v>11</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3064,12 +3191,12 @@
         <v>11</v>
       </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3081,12 +3208,12 @@
         <v>11</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3098,16 +3225,16 @@
         <v>11</v>
       </c>
       <c r="D92" s="3"/>
-      <c r="E92" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F92" s="5" t="n">
+      <c r="E92" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" s="4" t="n">
         <v>20</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3119,12 +3246,12 @@
         <v>11</v>
       </c>
       <c r="D93" s="3"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3136,12 +3263,12 @@
         <v>11</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3153,12 +3280,12 @@
         <v>11</v>
       </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="5"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3170,12 +3297,12 @@
         <v>11</v>
       </c>
       <c r="D96" s="3"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="5"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3187,12 +3314,12 @@
         <v>11</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="5"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H97" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3204,12 +3331,12 @@
         <v>11</v>
       </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="5"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3221,12 +3348,12 @@
         <v>11</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3238,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="8" t="n">
+      <c r="E100" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F100" s="5" t="n">
+      <c r="F100" s="4" t="n">
         <v>30</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3259,12 +3386,12 @@
         <v>11</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="5"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3276,12 +3403,12 @@
         <v>11</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="5"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3293,12 +3420,12 @@
         <v>11</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
       <c r="G103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3310,12 +3437,12 @@
         <v>11</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="5"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
       <c r="G104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3327,12 +3454,12 @@
         <v>11</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
       <c r="G105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H105" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3344,12 +3471,12 @@
         <v>11</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
       <c r="G106" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H106" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3361,12 +3488,12 @@
         <v>11</v>
       </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="5"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
       <c r="G107" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H107" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3377,19 +3504,19 @@
       <c r="C108" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="8" t="n">
+      <c r="D108" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="E108" s="5" t="n">
+      <c r="E108" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F108" s="5" t="n">
+      <c r="F108" s="4" t="n">
         <v>50</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="H108" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3398,13 +3525,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3413,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
       <c r="G110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H110" s="6" t="s">
+      <c r="H110" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3428,13 +3555,13 @@
         <v>10</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
       <c r="G111" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H111" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3443,13 +3570,13 @@
         <v>10</v>
       </c>
       <c r="C112" s="3"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H112" s="6" t="s">
+      <c r="H112" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3458,13 +3585,13 @@
         <v>10</v>
       </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H113" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3473,13 +3600,13 @@
         <v>10</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H114" s="6" t="s">
+      <c r="H114" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3488,13 +3615,13 @@
         <v>10</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
       <c r="G115" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H115" s="6" t="s">
+      <c r="H115" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3503,13 +3630,13 @@
         <v>10</v>
       </c>
       <c r="C116" s="3"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H116" s="6" t="s">
+      <c r="H116" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3520,11 +3647,11 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3535,25 +3662,25 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D119" s="8" t="n">
+      <c r="D119" s="4" t="n">
         <v>320</v>
       </c>
-      <c r="E119" s="8" t="n">
+      <c r="E119" s="4" t="n">
         <v>10</v>
       </c>
       <c r="F119" s="4" t="n">
@@ -3562,55 +3689,55 @@
       <c r="G119" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="8" t="n">
+      <c r="D122" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="E122" s="8" t="n">
+      <c r="E122" s="4" t="n">
         <v>25</v>
       </c>
       <c r="F122" s="4" t="n">
@@ -3621,44 +3748,44 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="8" t="n">
+      <c r="D125" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="E125" s="8" t="n">
+      <c r="E125" s="4" t="n">
         <v>50</v>
       </c>
       <c r="F125" s="4" t="n">
@@ -3669,179 +3796,179 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
       <c r="G128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="9" t="s">
+      <c r="H128" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="8"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
       <c r="G129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H129" s="6" t="s">
+      <c r="H129" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="8"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="0" t="s">
+      <c r="B130" s="4"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H130" s="9" t="s">
+      <c r="H130" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="8"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H131" s="9" t="s">
+      <c r="H131" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="8"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
       <c r="G132" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H132" s="9" t="s">
+      <c r="H132" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="8"/>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="4"/>
+      <c r="C133" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
       <c r="G133" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H133" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
       <c r="G134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H134" s="6" t="s">
+      <c r="H134" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
       <c r="G135" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
       <c r="G136" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="6" t="s">
+      <c r="H136" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="H137" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H138" s="6" t="s">
+      <c r="H138" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4144,7 +4271,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4274,7 +4401,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4461,7 +4588,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4549,7 +4676,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4736,7 +4863,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4838,7 +4965,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4940,7 +5067,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4989,7 +5116,7 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5046,7 +5173,7 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5060,7 +5187,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5071,7 +5198,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5700,7 +5827,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5732,161 +5859,161 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6099,7 +6226,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6579,7 +6706,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6681,7 +6808,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6783,7 +6910,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6885,7 +7012,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7126,16 +7253,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7494,7 +7621,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7653,7 +7780,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7674,7 +7801,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8098,7 +8225,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8474,7 +8601,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8605,7 +8732,1216 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11"/>
+      <c r="B18" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="7"/>
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8703,6 +10039,134 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -8968,7 +10432,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8989,7 +10453,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9126,7 +10590,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9284,7 +10748,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -59,6 +59,8 @@
     <sheet name="X7_AIN_12pin_ClikMate" sheetId="49" state="visible" r:id="rId51"/>
     <sheet name="X8_DIO_18pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
     <sheet name="X10_CAN_8pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
+    <sheet name="X11_FB3_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
+    <sheet name="X12_UDP_8pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="438">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1305,25 +1307,121 @@
     <t xml:space="preserve">Digitální výstup izolovaný č. 6</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN High signál</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN Low signál</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN izolovaná zem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN terminační propoj H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN terminační propoj L</t>
+    <t xml:space="preserve">CAN-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signál CANH (High) izolovaný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signál CANL (Low) izolovaný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izolovaná zem vyhranzená pro CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN TERM-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro propojku na TERM-L – terminace CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN TERM-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstup pro propojku na TERM-H – terminace CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxD-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #1 Transmit data -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxD+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #1 Transmit data +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #1 Recieve data -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #1 Recieve data +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+12 VDC OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Výstup +12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Společná GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #2 Transmit data +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #2 Transmit data -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #2 Recieve data +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS422 #2 Recieve data -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		DD+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár D pozitivní (hnědobílý)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár D negativní (hnědý)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár C negativní (modrobílý)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár C pozitivní (modrý)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár B negativní (zelený)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár B pozitivní (zelenobílý)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár A pozitivní (oranžovobílý)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T568B pár A negativní (oranžový)</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1527,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1440,10 +1538,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1466,15 +1560,11 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1675,7 +1765,7 @@
   </sheetPr>
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -1788,7 +1878,7 @@
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1796,3871 +1886,3871 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="6" t="n">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H9, conns!$A$2:$A$500, 0))</f>
         <v>5055700501</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H9, conns!$A$2:$A$500, 0))</f>
         <v>Molex</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H9, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H10, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J10" s="7" t="str">
+      <c r="J10" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H10, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H10, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H11, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="J11" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H11, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H11, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H12, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="J12" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H12, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H12, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="7" t="str">
+      <c r="I13" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H13, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J13" s="7" t="str">
+      <c r="J13" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H13, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H13, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="7" t="str">
+      <c r="I14" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H14, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="J14" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H14, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H14, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="I15" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H15, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="J15" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H15, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H15, conns!$A$2:$A$500, 0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="7" t="str">
+      <c r="I16" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H16, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="J16" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H16, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H16, conns!$A$2:$A$500, 0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <v>250</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="6" t="n">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H17, conns!$A$2:$A$500, 0))</f>
         <v>5055700501</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="J17" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H17, conns!$A$2:$A$500, 0))</f>
         <v>Molex</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H17, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H18, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="J18" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H18, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H18, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="7" t="str">
+      <c r="I19" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H19, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H19, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H19, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="7" t="str">
+      <c r="I20" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H20, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="J20" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H20, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H20, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H21, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="J21" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H21, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H21, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="7" t="str">
+      <c r="I22" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H22, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J22" s="7" t="str">
+      <c r="J22" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H22, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H22, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="I23" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H23, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J23" s="7" t="str">
+      <c r="J23" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H23, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H23, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H24, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J24" s="7" t="str">
+      <c r="J24" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H24, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K24" s="7" t="n">
+      <c r="K24" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H24, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4" t="n">
         <v>300</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="I25" s="6" t="n">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H25, conns!$A$2:$A$500, 0))</f>
         <v>5055700501</v>
       </c>
-      <c r="J25" s="7" t="str">
+      <c r="J25" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H25, conns!$A$2:$A$500, 0))</f>
         <v>Molex</v>
       </c>
-      <c r="K25" s="7" t="n">
+      <c r="K25" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H25, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="7" t="str">
+      <c r="I26" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H26, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J26" s="7" t="str">
+      <c r="J26" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H26, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K26" s="7" t="n">
+      <c r="K26" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H26, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="7" t="str">
+      <c r="I27" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H27, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J27" s="7" t="str">
+      <c r="J27" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H27, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K27" s="7" t="n">
+      <c r="K27" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H27, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="7" t="str">
+      <c r="I28" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H28, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J28" s="7" t="str">
+      <c r="J28" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H28, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H28, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="7" t="str">
+      <c r="I29" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H29, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J29" s="7" t="str">
+      <c r="J29" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H29, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="K29" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H29, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="7" t="str">
+      <c r="I30" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H30, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J30" s="7" t="str">
+      <c r="J30" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H30, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K30" s="7" t="n">
+      <c r="K30" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H30, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="7" t="str">
+      <c r="I31" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H31, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J31" s="7" t="str">
+      <c r="J31" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H31, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H31, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="7" t="str">
+      <c r="I32" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H32, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J32" s="7" t="str">
+      <c r="J32" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H32, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="K32" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H32, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="4" t="n">
         <v>450</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="6" t="n">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H33, conns!$A$2:$A$500, 0))</f>
         <v>5055700501</v>
       </c>
-      <c r="J33" s="7" t="str">
+      <c r="J33" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H33, conns!$A$2:$A$500, 0))</f>
         <v>Molex</v>
       </c>
-      <c r="K33" s="7" t="n">
+      <c r="K33" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H33, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="7" t="str">
+      <c r="I34" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H34, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J34" s="7" t="str">
+      <c r="J34" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H34, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K34" s="7" t="n">
+      <c r="K34" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H34, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="7" t="str">
+      <c r="I35" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H35, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J35" s="7" t="str">
+      <c r="J35" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H35, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K35" s="7" t="n">
+      <c r="K35" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H35, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="7" t="str">
+      <c r="I36" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H36, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J36" s="7" t="str">
+      <c r="J36" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H36, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="K36" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H36, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="7" t="str">
+      <c r="I37" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H37, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J37" s="7" t="str">
+      <c r="J37" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H37, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K37" s="7" t="n">
+      <c r="K37" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H37, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="7" t="str">
+      <c r="I38" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H38, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J38" s="7" t="str">
+      <c r="J38" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H38, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K38" s="7" t="n">
+      <c r="K38" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H38, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="D39" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="7" t="str">
+      <c r="I39" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H39, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J39" s="7" t="str">
+      <c r="J39" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H39, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K39" s="7" t="n">
+      <c r="K39" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H39, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="D40" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="7" t="str">
+      <c r="I40" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H40, conns!$A$2:$A$500, 0))</f>
         <v>kabelové oko</v>
       </c>
-      <c r="J40" s="7" t="str">
+      <c r="J40" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H40, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K40" s="7" t="n">
+      <c r="K40" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H40, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="4" t="n">
         <v>26</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="7" t="str">
+      <c r="I41" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H41, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J41" s="7" t="str">
+      <c r="J41" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H41, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K41" s="7" t="n">
+      <c r="K41" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H41, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="D42" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="7" t="str">
+      <c r="I42" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H42, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J42" s="7" t="str">
+      <c r="J42" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H42, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K42" s="7" t="n">
+      <c r="K42" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H42, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="7" t="str">
+      <c r="I43" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H43, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J43" s="7" t="str">
+      <c r="J43" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H43, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K43" s="7" t="n">
+      <c r="K43" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H43, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="7" t="str">
+      <c r="I44" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H44, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J44" s="7" t="str">
+      <c r="J44" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H44, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H44, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="D45" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="7" t="str">
+      <c r="I45" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H45, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J45" s="7" t="str">
+      <c r="J45" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H45, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H45, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="D46" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="7" t="str">
+      <c r="I46" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H46, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J46" s="7" t="str">
+      <c r="J46" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H46, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="K46" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H46, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="7" t="str">
+      <c r="I47" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H47, conns!$A$2:$A$500, 0))</f>
         <v>BLZP 5.08HC/06/180 SN OR BX </v>
       </c>
-      <c r="J47" s="7" t="str">
+      <c r="J47" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H47, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="K47" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H47, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="D48" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="7" t="str">
+      <c r="I48" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H48, conns!$A$2:$A$500, 0))</f>
         <v>BLZP 5.08HC/06/180 SN OR BX </v>
       </c>
-      <c r="J48" s="7" t="str">
+      <c r="J48" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H48, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K48" s="7" t="n">
+      <c r="K48" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H48, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="D49" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="7" t="str">
+      <c r="I49" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H49, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 2-STCL1-7,62 </v>
       </c>
-      <c r="J49" s="7" t="str">
+      <c r="J49" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H49, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K49" s="7" t="n">
+      <c r="K49" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H49, conns!$A$2:$A$500, 0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="7" t="str">
+      <c r="I50" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H50, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J50" s="7" t="str">
+      <c r="J50" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H50, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K50" s="7" t="n">
+      <c r="K50" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H50, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="7" t="str">
+      <c r="I51" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H51, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J51" s="7" t="str">
+      <c r="J51" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H51, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K51" s="7" t="n">
+      <c r="K51" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H51, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="7" t="str">
+      <c r="I52" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H52, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J52" s="7" t="str">
+      <c r="J52" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H52, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K52" s="7" t="n">
+      <c r="K52" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H52, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="7" t="str">
+      <c r="I53" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H53, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J53" s="7" t="str">
+      <c r="J53" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H53, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K53" s="7" t="n">
+      <c r="K53" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H53, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="7" t="str">
+      <c r="I54" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H54, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J54" s="7" t="str">
+      <c r="J54" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H54, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K54" s="7" t="n">
+      <c r="K54" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H54, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="7" t="str">
+      <c r="I55" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H55, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J55" s="7" t="str">
+      <c r="J55" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H55, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K55" s="7" t="n">
+      <c r="K55" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H55, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="7" t="str">
+      <c r="I56" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H56, conns!$A$2:$A$500, 0))</f>
         <v>SLS 5.08/06/180FI SN OR BX </v>
       </c>
-      <c r="J56" s="7" t="str">
+      <c r="J56" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H56, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K56" s="7" t="n">
+      <c r="K56" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H56, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="7" t="str">
+      <c r="I57" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H57, conns!$A$2:$A$500, 0))</f>
         <v>BLZP 5.08HC/10/180 SN OR BX </v>
       </c>
-      <c r="J57" s="7" t="str">
+      <c r="J57" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H57, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K57" s="7" t="n">
+      <c r="K57" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H57, conns!$A$2:$A$500, 0))</f>
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="3" t="n">
         <v>320</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I58" s="7" t="str">
+      <c r="I58" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H58, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J58" s="7" t="str">
+      <c r="J58" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H58, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K58" s="7" t="n">
+      <c r="K58" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H58, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="7" t="str">
+      <c r="I59" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H59, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J59" s="7" t="str">
+      <c r="J59" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H59, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K59" s="7" t="n">
+      <c r="K59" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H59, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="7" t="str">
+      <c r="I60" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H60, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J60" s="7" t="str">
+      <c r="J60" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H60, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K60" s="7" t="n">
+      <c r="K60" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H60, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="7" t="str">
+      <c r="I61" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H61, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J61" s="7" t="str">
+      <c r="J61" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H61, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K61" s="7" t="n">
+      <c r="K61" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H61, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="7" t="str">
+      <c r="I62" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H62, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J62" s="7" t="str">
+      <c r="J62" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H62, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K62" s="7" t="n">
+      <c r="K62" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H62, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="7" t="str">
+      <c r="I63" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H63, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J63" s="7" t="str">
+      <c r="J63" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H63, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K63" s="7" t="n">
+      <c r="K63" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H63, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I64" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H64, conns!$A$2:$A$500, 0))</f>
         <v>SLS 5.08/06/180FI SN OR BX </v>
       </c>
-      <c r="J64" s="7" t="str">
+      <c r="J64" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H64, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K64" s="7" t="n">
+      <c r="K64" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H64, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="7" t="str">
+      <c r="I65" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H65, conns!$A$2:$A$500, 0))</f>
         <v>SLS 5.08/06/180FI SN OR BX </v>
       </c>
-      <c r="J65" s="7" t="str">
+      <c r="J65" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H65, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K65" s="7" t="n">
+      <c r="K65" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H65, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="7" t="str">
+      <c r="I66" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H66, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 3-STCL1-7,62 </v>
       </c>
-      <c r="J66" s="7" t="str">
+      <c r="J66" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H66, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K66" s="7" t="n">
+      <c r="K66" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H66, conns!$A$2:$A$500, 0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="3" t="n">
         <v>320</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="7" t="str">
+      <c r="I67" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H67, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J67" s="7" t="str">
+      <c r="J67" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H67, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K67" s="7" t="n">
+      <c r="K67" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H67, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="7" t="str">
+      <c r="I68" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H68, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J68" s="7" t="str">
+      <c r="J68" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H68, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K68" s="7" t="n">
+      <c r="K68" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H68, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="7" t="str">
+      <c r="I69" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H69, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J69" s="7" t="str">
+      <c r="J69" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H69, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K69" s="7" t="n">
+      <c r="K69" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H69, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I70" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H70, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J70" s="7" t="str">
+      <c r="J70" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H70, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K70" s="7" t="n">
+      <c r="K70" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H70, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I71" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H71, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J71" s="7" t="str">
+      <c r="J71" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H71, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K71" s="7" t="n">
+      <c r="K71" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H71, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I72" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H72, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J72" s="7" t="str">
+      <c r="J72" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H72, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K72" s="7" t="n">
+      <c r="K72" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H72, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="7" t="str">
+      <c r="I73" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H73, conns!$A$2:$A$500, 0))</f>
         <v>SLS 5.08/06/180FI SN OR BX </v>
       </c>
-      <c r="J73" s="7" t="str">
+      <c r="J73" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H73, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K73" s="7" t="n">
+      <c r="K73" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H73, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I74" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H74, conns!$A$2:$A$500, 0))</f>
         <v>SLS 5.08/06/180FI SN OR BX </v>
       </c>
-      <c r="J74" s="7" t="str">
+      <c r="J74" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H74, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K74" s="7" t="n">
+      <c r="K74" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H74, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I75" s="7" t="str">
+      <c r="I75" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H75, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 3-STCL1-7,62 </v>
       </c>
-      <c r="J75" s="7" t="str">
+      <c r="J75" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H75, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K75" s="7" t="n">
+      <c r="K75" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H75, conns!$A$2:$A$500, 0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D76" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="4" t="n">
         <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I76" s="7" t="str">
+      <c r="I76" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H76, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J76" s="7" t="str">
+      <c r="J76" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H76, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K76" s="7" t="n">
+      <c r="K76" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H76, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="7" t="str">
+      <c r="I77" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H77, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J77" s="7" t="str">
+      <c r="J77" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H77, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K77" s="7" t="n">
+      <c r="K77" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H77, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I78" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H78, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J78" s="7" t="str">
+      <c r="J78" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H78, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K78" s="7" t="n">
+      <c r="K78" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H78, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="7" t="str">
+      <c r="I79" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H79, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J79" s="7" t="str">
+      <c r="J79" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H79, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K79" s="7" t="n">
+      <c r="K79" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H79, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I80" s="7" t="str">
+      <c r="I80" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H80, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J80" s="7" t="str">
+      <c r="J80" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H80, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K80" s="7" t="n">
+      <c r="K80" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H80, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I81" s="7" t="str">
+      <c r="I81" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H81, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J81" s="7" t="str">
+      <c r="J81" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H81, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K81" s="7" t="n">
+      <c r="K81" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H81, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I82" s="7" t="str">
+      <c r="I82" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H82, conns!$A$2:$A$500, 0))</f>
         <v>BLF 7.62HP/06/180F </v>
       </c>
-      <c r="J82" s="7" t="str">
+      <c r="J82" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H82, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K82" s="7" t="n">
+      <c r="K82" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H82, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I83" s="7" t="str">
+      <c r="I83" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H83, conns!$A$2:$A$500, 0))</f>
         <v>BLZ 7.62HP/12/180F </v>
       </c>
-      <c r="J83" s="7" t="str">
+      <c r="J83" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H83, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K83" s="7" t="n">
+      <c r="K83" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H83, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5" t="n">
+      <c r="D84" s="3"/>
+      <c r="E84" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="7" t="str">
+      <c r="I84" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H84, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J84" s="7" t="str">
+      <c r="J84" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H84, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K84" s="7" t="n">
+      <c r="K84" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H84, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="7" t="str">
+      <c r="I85" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H85, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J85" s="7" t="str">
+      <c r="J85" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H85, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K85" s="7" t="n">
+      <c r="K85" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H85, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="7" t="str">
+      <c r="I86" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H86, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J86" s="7" t="str">
+      <c r="J86" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H86, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K86" s="7" t="n">
+      <c r="K86" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H86, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I87" s="7" t="str">
+      <c r="I87" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H87, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J87" s="7" t="str">
+      <c r="J87" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H87, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K87" s="7" t="n">
+      <c r="K87" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H87, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="7" t="str">
+      <c r="I88" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H88, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J88" s="7" t="str">
+      <c r="J88" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H88, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K88" s="7" t="n">
+      <c r="K88" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H88, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I89" s="7" t="str">
+      <c r="I89" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H89, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J89" s="7" t="str">
+      <c r="J89" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H89, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K89" s="7" t="n">
+      <c r="K89" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H89, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I90" s="7" t="str">
+      <c r="I90" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H90, conns!$A$2:$A$500, 0))</f>
         <v>BLF 7.62HP/06/180F </v>
       </c>
-      <c r="J90" s="7" t="str">
+      <c r="J90" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H90, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K90" s="7" t="n">
+      <c r="K90" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H90, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I91" s="7" t="str">
+      <c r="I91" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H91, conns!$A$2:$A$500, 0))</f>
         <v>BLZ 7.62HP/12/180F </v>
       </c>
-      <c r="J91" s="7" t="str">
+      <c r="J91" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H91, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K91" s="7" t="n">
+      <c r="K91" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H91, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5" t="n">
+      <c r="D92" s="3"/>
+      <c r="E92" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F92" s="5" t="n">
+      <c r="F92" s="4" t="n">
         <v>20</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="7" t="str">
+      <c r="I92" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H92, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J92" s="7" t="str">
+      <c r="J92" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H92, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K92" s="7" t="n">
+      <c r="K92" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H92, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="7" t="str">
+      <c r="I93" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H93, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J93" s="7" t="str">
+      <c r="J93" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H93, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K93" s="7" t="n">
+      <c r="K93" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H93, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="7" t="str">
+      <c r="I94" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H94, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J94" s="7" t="str">
+      <c r="J94" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H94, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K94" s="7" t="n">
+      <c r="K94" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H94, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I95" s="7" t="str">
+      <c r="I95" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H95, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J95" s="7" t="str">
+      <c r="J95" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H95, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K95" s="7" t="n">
+      <c r="K95" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H95, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I96" s="7" t="str">
+      <c r="I96" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H96, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J96" s="7" t="str">
+      <c r="J96" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H96, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K96" s="7" t="n">
+      <c r="K96" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H96, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H97" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I97" s="7" t="str">
+      <c r="I97" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H97, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J97" s="7" t="str">
+      <c r="J97" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H97, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K97" s="7" t="n">
+      <c r="K97" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H97, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I98" s="7" t="str">
+      <c r="I98" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H98, conns!$A$2:$A$500, 0))</f>
         <v>BLF 7.62HP/06/180F </v>
       </c>
-      <c r="J98" s="7" t="str">
+      <c r="J98" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H98, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K98" s="7" t="n">
+      <c r="K98" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H98, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I99" s="7" t="str">
+      <c r="I99" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H99, conns!$A$2:$A$500, 0))</f>
         <v>BLZ 7.62HP/12/180F </v>
       </c>
-      <c r="J99" s="7" t="str">
+      <c r="J99" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H99, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K99" s="7" t="n">
+      <c r="K99" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H99, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5" t="n">
+      <c r="D100" s="3"/>
+      <c r="E100" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F100" s="5" t="n">
+      <c r="F100" s="4" t="n">
         <v>30</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I100" s="7" t="str">
+      <c r="I100" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H100, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J100" s="7" t="str">
+      <c r="J100" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H100, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K100" s="7" t="n">
+      <c r="K100" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H100, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I101" s="7" t="str">
+      <c r="I101" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H101, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J101" s="7" t="str">
+      <c r="J101" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H101, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K101" s="7" t="n">
+      <c r="K101" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H101, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="7" t="str">
+      <c r="I102" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H102, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J102" s="7" t="str">
+      <c r="J102" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H102, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K102" s="7" t="n">
+      <c r="K102" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H102, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
       <c r="G103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="H103" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I103" s="7" t="str">
+      <c r="I103" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H103, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J103" s="7" t="str">
+      <c r="J103" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H103, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K103" s="7" t="n">
+      <c r="K103" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H103, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
       <c r="G104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I104" s="7" t="str">
+      <c r="I104" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H104, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J104" s="7" t="str">
+      <c r="J104" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H104, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K104" s="7" t="n">
+      <c r="K104" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H104, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
       <c r="G105" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H105" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I105" s="7" t="str">
+      <c r="I105" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H105, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J105" s="7" t="str">
+      <c r="J105" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H105, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K105" s="7" t="n">
+      <c r="K105" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H105, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
       <c r="G106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H106" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I106" s="7" t="str">
+      <c r="I106" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H106, conns!$A$2:$A$500, 0))</f>
         <v>BLF 7.62HP/06/180F </v>
       </c>
-      <c r="J106" s="7" t="str">
+      <c r="J106" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H106, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K106" s="7" t="n">
+      <c r="K106" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H106, conns!$A$2:$A$500, 0))</f>
         <v>6</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
       <c r="G107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H107" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I107" s="7" t="str">
+      <c r="I107" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H107, conns!$A$2:$A$500, 0))</f>
         <v>BLZ 7.62HP/12/180F </v>
       </c>
-      <c r="J107" s="7" t="str">
+      <c r="J107" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H107, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K107" s="7" t="n">
+      <c r="K107" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H107, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="5" t="n">
+      <c r="D108" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="E108" s="5" t="n">
+      <c r="E108" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F108" s="5" t="n">
+      <c r="F108" s="4" t="n">
         <v>50</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="H108" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I108" s="7" t="str">
+      <c r="I108" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H108, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J108" s="7" t="str">
+      <c r="J108" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H108, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K108" s="7" t="n">
+      <c r="K108" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H108, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I109" s="7" t="str">
+      <c r="I109" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H109, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J109" s="7" t="str">
+      <c r="J109" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H109, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K109" s="7" t="n">
+      <c r="K109" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H109, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
       <c r="G110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H110" s="6" t="s">
+      <c r="H110" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I110" s="7" t="str">
+      <c r="I110" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H110, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J110" s="7" t="str">
+      <c r="J110" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H110, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K110" s="7" t="n">
+      <c r="K110" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H110, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
       <c r="G111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H111" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I111" s="7" t="str">
+      <c r="I111" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H111, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J111" s="7" t="str">
+      <c r="J111" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H111, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K111" s="7" t="n">
+      <c r="K111" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H111, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H112" s="6" t="s">
+      <c r="H112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I112" s="7" t="str">
+      <c r="I112" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H112, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/08/180 SN OR BX </v>
       </c>
-      <c r="J112" s="7" t="str">
+      <c r="J112" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H112, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K112" s="7" t="n">
+      <c r="K112" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H112, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I113" s="7" t="str">
+      <c r="I113" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H113, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/12/180 SN OR BX </v>
       </c>
-      <c r="J113" s="7" t="str">
+      <c r="J113" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H113, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K113" s="7" t="n">
+      <c r="K113" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H113, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H114" s="6" t="s">
+      <c r="H114" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I114" s="7" t="str">
+      <c r="I114" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H114, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 2-STCL1-7,62 </v>
       </c>
-      <c r="J114" s="7" t="str">
+      <c r="J114" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H114, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K114" s="7" t="n">
+      <c r="K114" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H114, conns!$A$2:$A$500, 0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
       <c r="G115" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H115" s="6" t="s">
+      <c r="H115" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I115" s="7" t="str">
+      <c r="I115" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H115, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 2-STCL1-7,62 </v>
       </c>
-      <c r="J115" s="7" t="str">
+      <c r="J115" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H115, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K115" s="7" t="n">
+      <c r="K115" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H115, conns!$A$2:$A$500, 0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H116" s="6" t="s">
+      <c r="H116" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I116" s="7" t="str">
+      <c r="I116" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H116, conns!$A$2:$A$500, 0))</f>
         <v>Svorky M8</v>
       </c>
-      <c r="J116" s="7" t="str">
+      <c r="J116" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H116, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K116" s="7" t="n">
+      <c r="K116" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H116, conns!$A$2:$A$500, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="5"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H117" s="6" t="s">
+      <c r="H117" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I117" s="7" t="str">
+      <c r="I117" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H117, conns!$A$2:$A$500, 0))</f>
         <v>Push-in</v>
       </c>
-      <c r="J117" s="7" t="str">
+      <c r="J117" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H117, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K117" s="7" t="n">
+      <c r="K117" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H117, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="5"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H118" s="6" t="s">
+      <c r="H118" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I118" s="7" t="str">
+      <c r="I118" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H118, conns!$A$2:$A$500, 0))</f>
         <v>Push-in</v>
       </c>
-      <c r="J118" s="7" t="str">
+      <c r="J118" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H118, conns!$A$2:$A$500, 0))</f>
         <v>-</v>
       </c>
-      <c r="K118" s="7" t="n">
+      <c r="K118" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H118, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="5" t="n">
+      <c r="D119" s="4" t="n">
         <v>320</v>
       </c>
-      <c r="E119" s="5" t="n">
+      <c r="E119" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F119" s="5" t="n">
+      <c r="F119" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="6" t="s">
+      <c r="H119" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I119" s="7" t="str">
+      <c r="I119" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H119, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 8-STCL1-7,62 </v>
       </c>
-      <c r="J119" s="7" t="str">
+      <c r="J119" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H119, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K119" s="7" t="n">
+      <c r="K119" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H119, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="6" t="s">
+      <c r="H120" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I120" s="7" t="str">
+      <c r="I120" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H120, conns!$A$2:$A$500, 0))</f>
         <v>PC 5/ 8-STCL1-7,62 </v>
       </c>
-      <c r="J120" s="7" t="str">
+      <c r="J120" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H120, conns!$A$2:$A$500, 0))</f>
         <v>Phoenix Contact</v>
       </c>
-      <c r="K120" s="7" t="n">
+      <c r="K120" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H120, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
       <c r="G121" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H121" s="6" t="s">
+      <c r="H121" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I121" s="7" t="str">
+      <c r="I121" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H121, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/04/180 SN BK BX </v>
       </c>
-      <c r="J121" s="7" t="str">
+      <c r="J121" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H121, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K121" s="7" t="n">
+      <c r="K121" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H121, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D122" s="5" t="n">
+      <c r="D122" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="E122" s="5" t="n">
+      <c r="E122" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="4" t="n">
         <v>50</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I122" s="7" t="e">
+      <c r="I122" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H122, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J122" s="7" t="e">
+      <c r="J122" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H122, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K122" s="7" t="e">
+      <c r="K122" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H122, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
       <c r="G123" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I123" s="7" t="e">
+      <c r="I123" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H123, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J123" s="7" t="e">
+      <c r="J123" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H123, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K123" s="7" t="e">
+      <c r="K123" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H123, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I124" s="7" t="e">
+      <c r="I124" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H124, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J124" s="7" t="e">
+      <c r="J124" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H124, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K124" s="7" t="e">
+      <c r="K124" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H124, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="5" t="n">
+      <c r="D125" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="E125" s="5" t="n">
+      <c r="E125" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="4" t="n">
         <v>100</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I125" s="7" t="e">
+      <c r="I125" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H125, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J125" s="7" t="e">
+      <c r="J125" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H125, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K125" s="7" t="e">
+      <c r="K125" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H125, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
       <c r="G126" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I126" s="7" t="e">
+      <c r="I126" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H126, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J126" s="7" t="e">
+      <c r="J126" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H126, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K126" s="7" t="e">
+      <c r="K126" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H126, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
       <c r="G127" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I127" s="7" t="e">
+      <c r="I127" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H127, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J127" s="7" t="e">
+      <c r="J127" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H127, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K127" s="7" t="e">
+      <c r="K127" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H127, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
       <c r="G128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="H128" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I128" s="7" t="str">
+      <c r="I128" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H128, conns!$A$2:$A$500, 0))</f>
         <v>BLF 2.50/04/180 SN OR BX </v>
       </c>
-      <c r="J128" s="7" t="str">
+      <c r="J128" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H128, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K128" s="7" t="n">
+      <c r="K128" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H128, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="5"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
       <c r="G129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="6" t="s">
+      <c r="H129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I129" s="7" t="str">
+      <c r="I129" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H129, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J129" s="7" t="str">
+      <c r="J129" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H129, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K129" s="7" t="n">
+      <c r="K129" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H129, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="5"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
       <c r="G130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H130" s="6" t="s">
+      <c r="H130" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I130" s="7" t="e">
+      <c r="I130" s="6" t="e">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H130, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J130" s="7" t="e">
+      <c r="J130" s="6" t="e">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H130, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K130" s="7" t="e">
+      <c r="K130" s="6" t="e">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H130, conns!$A$2:$A$500, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="5"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H131" s="6" t="s">
+      <c r="H131" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I131" s="7" t="str">
+      <c r="I131" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H131, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/10/180 SN OR BX </v>
       </c>
-      <c r="J131" s="7" t="str">
+      <c r="J131" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H131, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K131" s="7" t="n">
+      <c r="K131" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H131, conns!$A$2:$A$500, 0))</f>
         <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="5"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
       <c r="G132" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H132" s="6" t="s">
+      <c r="H132" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I132" s="7" t="str">
+      <c r="I132" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H132, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/10/180 SN OR BX </v>
       </c>
-      <c r="J132" s="7" t="str">
+      <c r="J132" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H132, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K132" s="7" t="n">
+      <c r="K132" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H132, conns!$A$2:$A$500, 0))</f>
         <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="5"/>
-      <c r="C133" s="4" t="s">
+      <c r="B133" s="4"/>
+      <c r="C133" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
       <c r="G133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H133" s="6" t="s">
+      <c r="H133" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I133" s="7" t="str">
+      <c r="I133" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H133, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/05/180 SN OR BX </v>
       </c>
-      <c r="J133" s="7" t="str">
+      <c r="J133" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H133, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K133" s="7" t="n">
+      <c r="K133" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H133, conns!$A$2:$A$500, 0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
       <c r="G134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H134" s="6" t="s">
+      <c r="H134" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I134" s="7" t="str">
+      <c r="I134" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H134, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/04/180 SN OR BX </v>
       </c>
-      <c r="J134" s="7" t="str">
+      <c r="J134" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H134, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K134" s="7" t="n">
+      <c r="K134" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H134, conns!$A$2:$A$500, 0))</f>
         <v>4</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
       <c r="G135" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I135" s="7" t="str">
+      <c r="I135" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H135, conns!$A$2:$A$500, 0))</f>
         <v>B2CF 3.50/22/180 SN OR BX</v>
       </c>
-      <c r="J135" s="7" t="str">
+      <c r="J135" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H135, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K135" s="7" t="n">
+      <c r="K135" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H135, conns!$A$2:$A$500, 0))</f>
         <v>22</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
       <c r="G136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H136" s="6" t="s">
+      <c r="H136" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I136" s="7" t="str">
+      <c r="I136" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H136, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/08/180 SN OR BX </v>
       </c>
-      <c r="J136" s="7" t="str">
+      <c r="J136" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H136, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K136" s="7" t="n">
+      <c r="K136" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H136, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="H137" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I137" s="7" t="str">
+      <c r="I137" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H137, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/08/180 SN OR BX </v>
       </c>
-      <c r="J137" s="7" t="str">
+      <c r="J137" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H137, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K137" s="7" t="n">
+      <c r="K137" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H137, conns!$A$2:$A$500, 0))</f>
         <v>8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="6" t="s">
+      <c r="H138" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I138" s="7" t="str">
+      <c r="I138" s="6" t="str">
         <f aca="false">INDEX(conns!$B$2:$B$500, MATCH(H138, conns!$A$2:$A$500, 0))</f>
         <v>BCZ 3.81/12/180 SN OR BX </v>
       </c>
-      <c r="J138" s="7" t="str">
+      <c r="J138" s="6" t="str">
         <f aca="false">INDEX(conns!$C$2:$C$500, MATCH(H138, conns!$A$2:$A$500, 0))</f>
         <v>Weidmüller</v>
       </c>
-      <c r="K138" s="7" t="n">
+      <c r="K138" s="6" t="n">
         <f aca="false">INDEX(conns!$D$2:$D$500, MATCH(H138, conns!$A$2:$A$500, 0))</f>
         <v>12</v>
       </c>
@@ -5993,7 +6083,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6123,7 +6213,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6253,7 +6343,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6440,7 +6530,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6528,7 +6618,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6715,7 +6805,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6817,7 +6907,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6919,7 +7009,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6948,457 +7038,457 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="6" t="n">
         <v>5055700501</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -7412,12 +7502,12 @@
       <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -7426,12 +7516,12 @@
       <c r="C34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -7440,7 +7530,7 @@
       <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7526,7 +7616,7 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7583,7 +7673,7 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7597,7 +7687,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7608,7 +7698,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8124,7 +8214,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8156,161 +8246,161 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8523,7 +8613,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9050,7 +9140,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9152,7 +9242,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9254,7 +9344,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9356,7 +9446,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9597,16 +9687,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9965,7 +10055,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10190,7 +10280,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10285,7 +10375,7 @@
       <c r="A13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10661,7 +10751,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10681,7 +10771,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -10792,7 +10882,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11046,7 +11136,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11266,7 +11356,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11486,7 +11576,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11507,7 +11597,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11661,7 +11751,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12267,17 +12357,185 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12296,10 +12554,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,10 +12565,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12318,10 +12576,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>401</v>
+        <v>366</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,10 +12587,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12340,10 +12598,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12351,10 +12609,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>400</v>
+        <v>113</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12362,10 +12620,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12373,11 +12631,187 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>405</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12740,7 +13174,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12898,7 +13332,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/connectors.xlsx
+++ b/docs/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="52"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0,75 ~ 16 mm2</t>
   </si>
   <si>
-    <t xml:space="preserve">0,2 ~ 10 mm2</t>
+    <t xml:space="preserve">0,2 ~ 6 mm2</t>
   </si>
   <si>
     <t xml:space="preserve">-B2</t>
@@ -1765,8 +1765,8 @@
   </sheetPr>
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6825,8 +6825,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6928,7 +6928,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12357,7 +12357,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
@@ -12367,147 +12367,107 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12535,7 +12495,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12556,7 +12516,7 @@
       <c r="B2" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -12567,7 +12527,7 @@
       <c r="B3" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>412</v>
       </c>
     </row>
@@ -12578,7 +12538,7 @@
       <c r="B4" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -12589,7 +12549,7 @@
       <c r="B5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -12600,7 +12560,7 @@
       <c r="B6" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -12611,7 +12571,7 @@
       <c r="B7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>417</v>
       </c>
     </row>
@@ -12622,7 +12582,7 @@
       <c r="B8" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -12633,7 +12593,7 @@
       <c r="B9" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -12644,7 +12604,7 @@
       <c r="B10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>420</v>
       </c>
     </row>
@@ -12655,7 +12615,7 @@
       <c r="B11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>421</v>
       </c>
     </row>
@@ -12686,7 +12646,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -12694,115 +12654,113 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
